--- a/published-data/fonds-solidarite/fds-2020-12-27/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-27/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -8742,10 +8742,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>49873</v>
+        <v>49874</v>
       </c>
       <c r="D221" t="n">
-        <v>113017718</v>
+        <v>113021934</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
